--- a/medicine/Mort/Cimetière_de_l'Ouest_(Boulogne-Billancourt)/Cimetière_de_l'Ouest_(Boulogne-Billancourt).xlsx
+++ b/medicine/Mort/Cimetière_de_l'Ouest_(Boulogne-Billancourt)/Cimetière_de_l'Ouest_(Boulogne-Billancourt).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Ouest_(Boulogne-Billancourt)</t>
+          <t>Cimetière_de_l'Ouest_(Boulogne-Billancourt)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de l'Ouest, appelé aussi ancien cimetière de Boulogne, est situé à Boulogne-Billancourt dans les Hauts-de-Seine[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de l'Ouest, appelé aussi ancien cimetière de Boulogne, est situé à Boulogne-Billancourt dans les Hauts-de-Seine,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Ouest_(Boulogne-Billancourt)</t>
+          <t>Cimetière_de_l'Ouest_(Boulogne-Billancourt)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le centre du cimetière est constitué d’une placette circulaire au centre de laquelle se trouve un petit obélisque qui surmonte l’ossuaire du cimetière : les noms de ceux ayant perdu leur concession y sont indiqués[3].
-Huit caveaux, certains restaurés, d'autres très abimés, de la Société du Mont Horeb[4] active dans la première partie du XXe siècle se trouvent dans la parcelle de l'extrémité sud-est du cimetière. De telles sociétés (ou Hevra Kaddisha) permettent à des Juifs d'assurer l'inhumation des leurs suivant la loi juive.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre du cimetière est constitué d’une placette circulaire au centre de laquelle se trouve un petit obélisque qui surmonte l’ossuaire du cimetière : les noms de ceux ayant perdu leur concession y sont indiqués.
+Huit caveaux, certains restaurés, d'autres très abimés, de la Société du Mont Horeb active dans la première partie du XXe siècle se trouvent dans la parcelle de l'extrémité sud-est du cimetière. De telles sociétés (ou Hevra Kaddisha) permettent à des Juifs d'assurer l'inhumation des leurs suivant la loi juive.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Ouest_(Boulogne-Billancourt)</t>
+          <t>Cimetière_de_l'Ouest_(Boulogne-Billancourt)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière est en réalité le troisième de la commune. Le premier, datant du Moyen Âge, se trouvait près de l’église. En 1810, le deuxième cimetière fut placé sur le site de Longchamp.
-Il fut exproprié en 1854 pour la construction de l'hippodrome de Longchamp, et c'est en 1856 que fut prise la décision d'en ouvrir un nouveau, rue de l'Ouest. La construction eut lieu de 1857 à 1858[5].
+Il fut exproprié en 1854 pour la construction de l'hippodrome de Longchamp, et c'est en 1856 que fut prise la décision d'en ouvrir un nouveau, rue de l'Ouest. La construction eut lieu de 1857 à 1858.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Ouest_(Boulogne-Billancourt)</t>
+          <t>Cimetière_de_l'Ouest_(Boulogne-Billancourt)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Paul Adam (1863–1920), homme de lettres. Sa tombe est ornée d'une pietà de Paul Landowski ;
 Joseph Bernard (1866–1931), sculpteur, et son fils Jean (1908-1994), fresquiste ;
@@ -596,9 +614,9 @@
 André Giresse (1922–2008), magistrat ;
 Paul Grimault (1905–1994), dessinateur et producteur de dessins animés ;
 Juan Gris (1887–1927), peintre cubiste ;
-Le chanteur C. Jérôme (né Claude Dhôtel 1946–2000)[6], à la division 4 ;
+Le chanteur C. Jérôme (né Claude Dhôtel 1946–2000), à la division 4 ;
 Jacques-Edmond Leman (1829-1889), peintre et illustrateur ;
-Paul Marmottan (1856–1932), collectionneur[7], à la division 6 (chapelle) ;
+Paul Marmottan (1856–1932), collectionneur, à la division 6 (chapelle) ;
 Chapelle funéraire de la famille Menier (des chocolats) ;
 Marcel Noguès (1895–1919), as de l'aviation ;
 Denis Savignat (1937–1998), acteur ;
